--- a/biology/Biologie cellulaire et moléculaire/Petra_Schwille/Petra_Schwille.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Petra_Schwille/Petra_Schwille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Petra Schwille, née le 25 janvier 1968 à Sindelfingen[1], est biophysicienne et directrice du département de recherche Biophysique cellulaire et moléculaire de l'Institut Max-Planck de biochimie[2].
-Elle est notamment connue pour son travail sur les modèles de membrane[3] et a reçu le prix Gottfried Wilhelm Leibniz en 2010[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Petra Schwille, née le 25 janvier 1968 à Sindelfingen, est biophysicienne et directrice du département de recherche Biophysique cellulaire et moléculaire de l'Institut Max-Planck de biochimie.
+Elle est notamment connue pour son travail sur les modèles de membrane et a reçu le prix Gottfried Wilhelm Leibniz en 2010.
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Petra Schwille a obtenu un diplôme en physique de l'Université de Göttingen en 1993[5]. Elle a effectué sa thèse doctorante à l'Institut Max Planck de chimie biophysique à Göttingen, en Allemagne, et a obtenu son diplôme de l'Université technique de Brunswick en 1996.
-Elle travaille comme chercheure postdoctorale à l'Université Cornell en 1997 puis retourne à l'Institut Max Planck de chimie biophysique à Göttingen en 1999, pour prendre un poste de chef de groupe de recherche[3]. En 2002, elle devient professeure de biophysique à l'Université technique de Dresde[4]. En 2012, Elle devient directrice du département de recherche Biophysique cellulaire et moléculaire à l'Institut Max Planck de biochimie à Martinsried[3], en Allemagne, ainsi que professeure honoraire de physique à l'Université Ludwig Maximilian de Munich[5].
-Elle a développé la méthode de spectroscopie de corrélation croisée à deux photons permettant d'explorer les processus cellulaires fondamentaux[6].
-En 2011, elle devient membre du conseil d'administration scientifique du prix Heinrich Wieland[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Petra Schwille a obtenu un diplôme en physique de l'Université de Göttingen en 1993. Elle a effectué sa thèse doctorante à l'Institut Max Planck de chimie biophysique à Göttingen, en Allemagne, et a obtenu son diplôme de l'Université technique de Brunswick en 1996.
+Elle travaille comme chercheure postdoctorale à l'Université Cornell en 1997 puis retourne à l'Institut Max Planck de chimie biophysique à Göttingen en 1999, pour prendre un poste de chef de groupe de recherche. En 2002, elle devient professeure de biophysique à l'Université technique de Dresde. En 2012, Elle devient directrice du département de recherche Biophysique cellulaire et moléculaire à l'Institut Max Planck de biochimie à Martinsried, en Allemagne, ainsi que professeure honoraire de physique à l'Université Ludwig Maximilian de Munich.
+Elle a développé la méthode de spectroscopie de corrélation croisée à deux photons permettant d'explorer les processus cellulaires fondamentaux.
+En 2011, elle devient membre du conseil d'administration scientifique du prix Heinrich Wieland.
 </t>
         </is>
       </c>
@@ -546,16 +560,18 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2004 : Prix de la recherche Philip Morris[8]
-2010 : Prix Gottfried-Wilhelm-Leibniz[9],[4]
-2010 : Membre de l'Académie nationale des Sciences Leopoldina[10]
-2011 : Prix de la recherche Braunschweig[6],[11]
-2011 : Membre de la Deutsche Akademie der Technikwissenschaften (Acatech)[12],[13]
-2013 : Membre de l'Académie des sciences de Berlin-Brandebourg[14]
-2015 : Membre honoraire de la Royal Microscopical Society[15]
-2017 : Membre de la Biophysical Society[16]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2004 : Prix de la recherche Philip Morris
+2010 : Prix Gottfried-Wilhelm-Leibniz,
+2010 : Membre de l'Académie nationale des Sciences Leopoldina
+2011 : Prix de la recherche Braunschweig,
+2011 : Membre de la Deutsche Akademie der Technikwissenschaften (Acatech),
+2013 : Membre de l'Académie des sciences de Berlin-Brandebourg
+2015 : Membre honoraire de la Royal Microscopical Society
+2017 : Membre de la Biophysical Society</t>
         </is>
       </c>
     </row>
@@ -583,7 +599,9 @@
           <t>Publications scientifiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Petra Schwille, Franz-Josef Meyer-Almes, Rudolf Rigler, Dual-Color Fluorescence Cross-Correlation Spectroscopy for Multicomponent Diffusional Analysisin Solution, 1997
 Petra Schwille &amp; Elke Haustein Fluorescence Correlation Spectroscopy — An introduction to its concepts and applications
